--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1825.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1825.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.119694194661587</v>
+        <v>0.7791272401809692</v>
       </c>
       <c r="B1">
-        <v>2.526171757418255</v>
+        <v>1.271139144897461</v>
       </c>
       <c r="C1">
-        <v>2.6613758145242</v>
+        <v>5.13085412979126</v>
       </c>
       <c r="D1">
-        <v>3.155584806725356</v>
+        <v>1.607800602912903</v>
       </c>
       <c r="E1">
-        <v>0.7639008005710624</v>
+        <v>0.9239203929901123</v>
       </c>
     </row>
   </sheetData>
